--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.634464</v>
+        <v>14.89044</v>
       </c>
       <c r="H2">
-        <v>85.903392</v>
+        <v>44.67131999999999</v>
       </c>
       <c r="I2">
-        <v>0.3570833578723188</v>
+        <v>0.2565914865678757</v>
       </c>
       <c r="J2">
-        <v>0.3570833578723188</v>
+        <v>0.2565914865678757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>3221.760672741887</v>
+        <v>908.93637661012</v>
       </c>
       <c r="R2">
-        <v>28995.84605467699</v>
+        <v>8180.42738949108</v>
       </c>
       <c r="S2">
-        <v>0.1169559756041549</v>
+        <v>0.05243738158189405</v>
       </c>
       <c r="T2">
-        <v>0.1169559756041549</v>
+        <v>0.05243738158189405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.634464</v>
+        <v>14.89044</v>
       </c>
       <c r="H3">
-        <v>85.903392</v>
+        <v>44.67131999999999</v>
       </c>
       <c r="I3">
-        <v>0.3570833578723188</v>
+        <v>0.2565914865678757</v>
       </c>
       <c r="J3">
-        <v>0.3570833578723188</v>
+        <v>0.2565914865678757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>3044.257749356223</v>
+        <v>1583.06917710504</v>
       </c>
       <c r="R3">
-        <v>27398.31974420602</v>
+        <v>14247.62259394536</v>
       </c>
       <c r="S3">
-        <v>0.1105122854341175</v>
+        <v>0.09132872734171495</v>
       </c>
       <c r="T3">
-        <v>0.1105122854341175</v>
+        <v>0.09132872734171496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.634464</v>
+        <v>14.89044</v>
       </c>
       <c r="H4">
-        <v>85.903392</v>
+        <v>44.67131999999999</v>
       </c>
       <c r="I4">
-        <v>0.3570833578723188</v>
+        <v>0.2565914865678757</v>
       </c>
       <c r="J4">
-        <v>0.3570833578723188</v>
+        <v>0.2565914865678757</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>3570.478715742741</v>
+        <v>1955.686703873439</v>
       </c>
       <c r="R4">
-        <v>32134.30844168467</v>
+        <v>17601.18033486096</v>
       </c>
       <c r="S4">
-        <v>0.1296150968340464</v>
+        <v>0.1128253776442667</v>
       </c>
       <c r="T4">
-        <v>0.1296150968340464</v>
+        <v>0.1128253776442667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>110.248177</v>
       </c>
       <c r="I5">
-        <v>0.4582797992710433</v>
+        <v>0.6332641083323323</v>
       </c>
       <c r="J5">
-        <v>0.4582797992710433</v>
+        <v>0.6332641083323323</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>4134.798785362128</v>
+        <v>2243.241939800552</v>
       </c>
       <c r="R5">
-        <v>37213.18906825915</v>
+        <v>20189.17745820497</v>
       </c>
       <c r="S5">
-        <v>0.1501009773818309</v>
+        <v>0.1294147055886684</v>
       </c>
       <c r="T5">
-        <v>0.1501009773818309</v>
+        <v>0.1294147055886684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>110.248177</v>
       </c>
       <c r="I6">
-        <v>0.4582797992710433</v>
+        <v>0.6332641083323323</v>
       </c>
       <c r="J6">
-        <v>0.4582797992710433</v>
+        <v>0.6332641083323323</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>3906.992021742827</v>
@@ -818,10 +818,10 @@
         <v>35162.92819568545</v>
       </c>
       <c r="S6">
-        <v>0.1418311631421389</v>
+        <v>0.2253979890711564</v>
       </c>
       <c r="T6">
-        <v>0.1418311631421389</v>
+        <v>0.2253979890711564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>110.248177</v>
       </c>
       <c r="I7">
-        <v>0.4582797992710433</v>
+        <v>0.6332641083323323</v>
       </c>
       <c r="J7">
-        <v>0.4582797992710433</v>
+        <v>0.6332641083323323</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>4582.342562537443</v>
+        <v>4826.606733026594</v>
       </c>
       <c r="R7">
-        <v>41241.08306283698</v>
+        <v>43439.46059723935</v>
       </c>
       <c r="S7">
-        <v>0.1663476587470736</v>
+        <v>0.2784514136725074</v>
       </c>
       <c r="T7">
-        <v>0.1663476587470736</v>
+        <v>0.2784514136725075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.80600233333333</v>
+        <v>6.391867</v>
       </c>
       <c r="H8">
-        <v>44.418007</v>
+        <v>19.175601</v>
       </c>
       <c r="I8">
-        <v>0.1846368428566379</v>
+        <v>0.1101444050997921</v>
       </c>
       <c r="J8">
-        <v>0.1846368428566379</v>
+        <v>0.1101444050997921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>1665.873544483248</v>
+        <v>390.1698291490244</v>
       </c>
       <c r="R8">
-        <v>14992.86190034923</v>
+        <v>3511.528462341219</v>
       </c>
       <c r="S8">
-        <v>0.06047434475087062</v>
+        <v>0.02250925888689095</v>
       </c>
       <c r="T8">
-        <v>0.06047434475087062</v>
+        <v>0.02250925888689095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.80600233333333</v>
+        <v>6.391867</v>
       </c>
       <c r="H9">
-        <v>44.418007</v>
+        <v>19.175601</v>
       </c>
       <c r="I9">
-        <v>0.1846368428566379</v>
+        <v>0.1101444050997921</v>
       </c>
       <c r="J9">
-        <v>0.1846368428566379</v>
+        <v>0.1101444050997921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>1574.092231663087</v>
+        <v>679.547926848022</v>
       </c>
       <c r="R9">
-        <v>14166.83008496779</v>
+        <v>6115.931341632198</v>
       </c>
       <c r="S9">
-        <v>0.05714251036790991</v>
+        <v>0.03920374941556499</v>
       </c>
       <c r="T9">
-        <v>0.05714251036790993</v>
+        <v>0.039203749415565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.80600233333333</v>
+        <v>6.391867</v>
       </c>
       <c r="H10">
-        <v>44.418007</v>
+        <v>19.175601</v>
       </c>
       <c r="I10">
-        <v>0.1846368428566379</v>
+        <v>0.1101444050997921</v>
       </c>
       <c r="J10">
-        <v>0.1846368428566379</v>
+        <v>0.1101444050997921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>1846.184939812529</v>
+        <v>839.4976444502253</v>
       </c>
       <c r="R10">
-        <v>16615.66445831276</v>
+        <v>7555.478800052028</v>
       </c>
       <c r="S10">
-        <v>0.06701998773785733</v>
+        <v>0.04843139679733614</v>
       </c>
       <c r="T10">
-        <v>0.06701998773785735</v>
+        <v>0.04843139679733614</v>
       </c>
     </row>
   </sheetData>
